--- a/data/trans_orig/APOYO_SOCIAL_OSLO_CAT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_OSLO_CAT-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social categorias OSLO en Barcelona</t>
+          <t>Apoyo social categorias OSLO en Barcelona (tasa de respuesta: 97,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/APOYO_SOCIAL_OSLO_CAT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_OSLO_CAT-Estudios-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12701</t>
+          <t>13234</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28382</t>
+          <t>27157</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>38,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23861</t>
+          <t>24220</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>38937</t>
+          <t>39663</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>48,27%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>39722</t>
+          <t>39910</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>60394</t>
+          <t>60411</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>39,51%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31264</t>
+          <t>31478</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49683</t>
+          <t>48244</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,2%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,25%</t>
+          <t>68,21%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25322</t>
+          <t>25841</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41761</t>
+          <t>41894</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>50,82%</t>
+          <t>50,98%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>62649</t>
+          <t>61638</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>86815</t>
+          <t>85667</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>40,31%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>56,03%</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5936</t>
+          <t>5981</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19915</t>
+          <t>19886</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11550</t>
+          <t>11474</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>27253</t>
+          <t>26307</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>19861</t>
+          <t>19827</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>39715</t>
+          <t>39873</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>26,08%</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>96682</t>
+          <t>95698</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>120551</t>
+          <t>120397</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>35,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>114910</t>
+          <t>113805</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>139969</t>
+          <t>139613</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>41,7%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>215303</t>
+          <t>218291</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>251360</t>
+          <t>253678</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>37,81%</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>176587</t>
+          <t>176312</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>201570</t>
+          <t>201276</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,53%</t>
+          <t>52,45%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>59,96%</t>
+          <t>59,87%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>150475</t>
+          <t>149839</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>175659</t>
+          <t>176107</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>44,95%</t>
+          <t>44,76%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>52,47%</t>
+          <t>52,6%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1377,12 +1377,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>334331</t>
+          <t>333569</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>370294</t>
+          <t>370782</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>49,83%</t>
+          <t>49,71%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>55,19%</t>
+          <t>55,26%</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31245</t>
+          <t>31240</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48385</t>
+          <t>47626</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36315</t>
+          <t>36655</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>55206</t>
+          <t>55200</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>72297</t>
+          <t>71943</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>97238</t>
+          <t>96997</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>14,46%</t>
         </is>
       </c>
     </row>
@@ -1650,12 +1650,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>71328</t>
+          <t>70507</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>91591</t>
+          <t>90556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1665,12 +1665,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>41,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110435</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>133510</t>
+          <t>134610</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1700,12 +1700,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>48,62%</t>
+          <t>49,02%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>188435</t>
+          <t>187760</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>218824</t>
+          <t>218438</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>44,54%</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>110151</t>
+          <t>110387</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>130930</t>
+          <t>130065</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,05%</t>
+          <t>51,16%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,68%</t>
+          <t>60,28%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>122865</t>
+          <t>122634</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>146707</t>
+          <t>146066</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1813,12 +1813,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>44,74%</t>
+          <t>44,66%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>53,42%</t>
+          <t>53,19%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>238925</t>
+          <t>240061</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>268871</t>
+          <t>271073</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>48,72%</t>
+          <t>48,95%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>54,83%</t>
+          <t>55,28%</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10160</t>
+          <t>10713</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20718</t>
+          <t>21494</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>12552</t>
+          <t>12234</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>24895</t>
+          <t>24791</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1946,12 +1946,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>25176</t>
+          <t>24907</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>41374</t>
+          <t>41130</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,39%</t>
         </is>
       </c>
     </row>
@@ -2106,12 +2106,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>191452</t>
+          <t>190487</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>226327</t>
+          <t>226537</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>36,35%</t>
+          <t>36,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>263358</t>
+          <t>261040</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>300881</t>
+          <t>300348</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>37,74%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>43,51%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>464605</t>
+          <t>464302</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>513949</t>
+          <t>515352</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>35,33%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>39,11%</t>
+          <t>39,21%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>330099</t>
+          <t>330597</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>367255</t>
+          <t>368843</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>53,01%</t>
+          <t>53,09%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>58,98%</t>
+          <t>59,24%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>310985</t>
+          <t>312373</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>349851</t>
+          <t>350537</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>44,97%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>50,59%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>652552</t>
+          <t>653698</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>705984</t>
+          <t>706525</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>49,65%</t>
+          <t>49,74%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>53,72%</t>
+          <t>53,76%</t>
         </is>
       </c>
     </row>
@@ -2332,12 +2332,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>55071</t>
+          <t>54300</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>78016</t>
+          <t>77688</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2347,12 +2347,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>67527</t>
+          <t>68352</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>94545</t>
+          <t>94521</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>127267</t>
+          <t>128975</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>162689</t>
+          <t>162992</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>12,4%</t>
         </is>
       </c>
     </row>
